--- a/docs/shrcore/shr-core-LaboratoryProcedure.xlsx
+++ b/docs/shrcore/shr-core-LaboratoryProcedure.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$80</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2673" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2741" uniqueCount="446">
   <si>
     <t>Path</t>
   </si>
@@ -482,6 +482,26 @@
     <t>The point in time when the statement was created.</t>
   </si>
   <si>
+    <t>personauthor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PersonAuthor-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A human author, patient, practitioner, or related person, as opposed to an organization or device.</t>
+  </si>
+  <si>
+    <t>personinformationsource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PersonInformationSource-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The person who provided the information, not necessarily the patient.</t>
+  </si>
+  <si>
     <t>treatmentintent</t>
   </si>
   <si>
@@ -917,7 +937,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EpisodeOfCare]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter]]}
 </t>
   </si>
   <si>
@@ -1272,7 +1292,7 @@
     <t>Procedure.complicationDetail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Condition]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition]]}
 </t>
   </si>
   <si>
@@ -1564,7 +1584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN78"/>
+  <dimension ref="A1:AM80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1574,7 +1594,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.01171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.3984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -3917,40 +3937,38 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K22" t="s" s="2">
         <v>155</v>
       </c>
+      <c r="K22" s="2"/>
       <c r="L22" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3999,7 +4017,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -4017,7 +4035,7 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -4028,9 +4046,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>40</v>
       </c>
@@ -4039,7 +4059,7 @@
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>40</v>
@@ -4048,21 +4068,17 @@
         <v>40</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K23" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>161</v>
-      </c>
       <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
-        <v>162</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>40</v>
       </c>
@@ -4110,7 +4126,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -4128,22 +4144,22 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>165</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4156,21 +4172,23 @@
         <v>40</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -4219,7 +4237,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4237,7 +4255,7 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -4248,18 +4266,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>40</v>
@@ -4271,16 +4289,18 @@
         <v>50</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="N25" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
       </c>
@@ -4328,7 +4348,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4346,29 +4366,29 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>40</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>40</v>
@@ -4380,17 +4400,15 @@
         <v>50</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -4439,7 +4457,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4457,7 +4475,7 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
@@ -4466,42 +4484,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4526,11 +4542,13 @@
         <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="X27" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y27" t="s" s="2">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>40</v>
@@ -4548,13 +4566,13 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
@@ -4563,13 +4581,13 @@
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>40</v>
@@ -4577,43 +4595,43 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
@@ -4659,13 +4677,13 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>40</v>
@@ -4677,7 +4695,7 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -4686,9 +4704,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4696,30 +4714,32 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4744,13 +4764,11 @@
         <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>40</v>
@@ -4768,28 +4786,28 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>49</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
@@ -4797,7 +4815,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4808,30 +4826,32 @@
         <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="K30" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="L30" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
@@ -4853,13 +4873,13 @@
         <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>40</v>
@@ -4877,7 +4897,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4895,10 +4915,10 @@
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>40</v>
@@ -4906,7 +4926,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4917,7 +4937,7 @@
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>40</v>
@@ -4926,16 +4946,16 @@
         <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>62</v>
+        <v>206</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>63</v>
+        <v>207</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>64</v>
+        <v>208</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4962,13 +4982,13 @@
         <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>40</v>
@@ -4986,7 +5006,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4995,7 +5015,7 @@
         <v>49</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>40</v>
@@ -5004,7 +5024,7 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>66</v>
+        <v>212</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -5015,18 +5035,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>40</v>
@@ -5035,20 +5055,18 @@
         <v>40</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>70</v>
+        <v>214</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -5073,37 +5091,37 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>40</v>
@@ -5115,10 +5133,10 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>66</v>
+        <v>218</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
@@ -5126,7 +5144,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5134,11 +5152,11 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F33" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="F33" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="G33" t="s" s="2">
         <v>40</v>
       </c>
@@ -5146,23 +5164,19 @@
         <v>40</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>217</v>
+        <v>63</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>40</v>
       </c>
@@ -5198,20 +5212,26 @@
         <v>40</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AB33" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE33" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG33" s="2"/>
+      <c r="AG33" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
       </c>
@@ -5222,31 +5242,29 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>222</v>
+        <v>66</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>223</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
@@ -5255,16 +5273,20 @@
         <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K34" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="L34" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -5301,22 +5323,26 @@
         <v>40</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE34" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG34" s="2"/>
+      <c r="AG34" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
       </c>
@@ -5327,7 +5353,7 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
@@ -5338,7 +5364,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5346,10 +5372,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>40</v>
@@ -5358,19 +5384,23 @@
         <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>63</v>
+        <v>223</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
       </c>
@@ -5406,26 +5436,20 @@
         <v>40</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="AB35" s="2"/>
       <c r="AC35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>65</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AE35" s="2"/>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>49</v>
-      </c>
+      <c r="AG35" s="2"/>
       <c r="AH35" t="s" s="2">
         <v>40</v>
       </c>
@@ -5436,29 +5460,31 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>40</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="C36" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
@@ -5467,20 +5493,16 @@
         <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="K36" s="2"/>
       <c r="L36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5517,26 +5539,22 @@
         <v>40</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AE36" s="2"/>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG36" s="2"/>
       <c r="AH36" t="s" s="2">
         <v>40</v>
       </c>
@@ -5547,7 +5565,7 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
@@ -5558,7 +5576,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5578,29 +5596,25 @@
         <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>228</v>
+        <v>63</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>232</v>
+        <v>40</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>40</v>
@@ -5641,11 +5655,15 @@
       <c r="AD37" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE37" s="2"/>
+      <c r="AE37" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG37" s="2"/>
+      <c r="AG37" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5656,29 +5674,29 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>233</v>
+        <v>66</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>234</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>40</v>
@@ -5687,19 +5705,19 @@
         <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>236</v>
+        <v>70</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>237</v>
+        <v>71</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>238</v>
+        <v>72</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5737,22 +5755,26 @@
         <v>40</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE38" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG38" s="2"/>
+      <c r="AG38" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5763,18 +5785,18 @@
         <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>239</v>
+        <v>66</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>240</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5797,24 +5819,26 @@
         <v>50</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>40</v>
@@ -5870,18 +5894,18 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5907,15 +5931,15 @@
         <v>62</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5977,18 +6001,18 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6011,26 +6035,24 @@
         <v>50</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>40</v>
+        <v>251</v>
       </c>
       <c r="R41" t="s" s="2">
         <v>40</v>
@@ -6086,18 +6108,18 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6123,16 +6145,14 @@
         <v>62</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -6195,32 +6215,32 @@
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>269</v>
+        <v>40</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>40</v>
@@ -6229,17 +6249,19 @@
         <v>50</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="N43" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -6264,11 +6286,13 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>273</v>
+        <v>40</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
@@ -6285,15 +6309,11 @@
       <c r="AD43" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE43" t="s" s="2">
-        <v>268</v>
-      </c>
+      <c r="AE43" s="2"/>
       <c r="AF43" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG43" t="s" s="2">
-        <v>49</v>
-      </c>
+      <c r="AG43" s="2"/>
       <c r="AH43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6301,35 +6321,35 @@
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>268</v>
+        <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>275</v>
+        <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>278</v>
+        <v>40</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>40</v>
@@ -6338,16 +6358,20 @@
         <v>50</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>279</v>
+        <v>62</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>40</v>
       </c>
@@ -6394,15 +6418,11 @@
       <c r="AD44" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE44" t="s" s="2">
-        <v>277</v>
-      </c>
+      <c r="AE44" s="2"/>
       <c r="AF44" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>49</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AG44" s="2"/>
       <c r="AH44" t="s" s="2">
         <v>40</v>
       </c>
@@ -6410,35 +6430,35 @@
         <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>277</v>
+        <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>40</v>
@@ -6447,16 +6467,18 @@
         <v>50</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>287</v>
+        <v>206</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>40</v>
       </c>
@@ -6480,13 +6502,11 @@
         <v>40</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>40</v>
+        <v>279</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>40</v>
@@ -6504,7 +6524,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6519,25 +6539,25 @@
         <v>40</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>40</v>
+        <v>274</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>40</v>
+        <v>284</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6556,13 +6576,13 @@
         <v>50</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6613,10 +6633,10 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>49</v>
@@ -6628,32 +6648,32 @@
         <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>40</v>
+        <v>292</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>40</v>
@@ -6665,13 +6685,13 @@
         <v>50</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6722,36 +6742,36 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>304</v>
+        <v>40</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>40</v>
+        <v>297</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>40</v>
+        <v>298</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6759,28 +6779,28 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>62</v>
+        <v>300</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>63</v>
+        <v>301</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>64</v>
+        <v>302</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6831,7 +6851,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>65</v>
+        <v>299</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6846,25 +6866,25 @@
         <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>66</v>
+        <v>303</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>40</v>
+        <v>304</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>40</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6880,20 +6900,18 @@
         <v>40</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>69</v>
+        <v>307</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>70</v>
+        <v>308</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -6942,7 +6960,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6954,13 +6972,13 @@
         <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>40</v>
+        <v>310</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>66</v>
+        <v>311</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
@@ -6971,40 +6989,38 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>309</v>
+        <v>40</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>40</v>
@@ -7053,13 +7069,13 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>311</v>
+        <v>65</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>40</v>
@@ -7071,7 +7087,7 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -7082,18 +7098,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>40</v>
@@ -7102,18 +7118,20 @@
         <v>40</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>313</v>
+        <v>70</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -7138,13 +7156,13 @@
         <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>315</v>
+        <v>40</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>316</v>
+        <v>40</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>40</v>
@@ -7162,13 +7180,13 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>312</v>
+        <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>40</v>
@@ -7180,52 +7198,52 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>317</v>
+        <v>66</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>318</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>320</v>
+        <v>69</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>321</v>
+        <v>161</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7273,13 +7291,13 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>40</v>
@@ -7291,18 +7309,18 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>324</v>
+        <v>138</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>325</v>
+        <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>326</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7322,21 +7340,19 @@
         <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>328</v>
+        <v>206</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>331</v>
-      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7360,13 +7376,13 @@
         <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>40</v>
+        <v>321</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>40</v>
+        <v>322</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>40</v>
@@ -7384,7 +7400,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7402,18 +7418,18 @@
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>40</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7421,7 +7437,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>49</v>
@@ -7436,17 +7452,17 @@
         <v>50</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7495,10 +7511,10 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>49</v>
@@ -7513,18 +7529,18 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>40</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7544,19 +7560,21 @@
         <v>40</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>200</v>
+        <v>334</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7580,13 +7598,13 @@
         <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>343</v>
+        <v>40</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>344</v>
+        <v>40</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>40</v>
@@ -7604,13 +7622,13 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>40</v>
@@ -7622,10 +7640,10 @@
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>346</v>
+        <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>40</v>
@@ -7633,7 +7651,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7656,18 +7674,18 @@
         <v>50</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>40</v>
       </c>
@@ -7715,13 +7733,13 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>40</v>
@@ -7733,10 +7751,10 @@
         <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>40</v>
@@ -7744,7 +7762,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7755,7 +7773,7 @@
         <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>40</v>
@@ -7767,13 +7785,13 @@
         <v>50</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7800,11 +7818,13 @@
         <v>40</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="X57" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="Y57" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>40</v>
@@ -7822,7 +7842,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7840,18 +7860,18 @@
         <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>40</v>
+        <v>352</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>358</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7871,18 +7891,20 @@
         <v>40</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>62</v>
+        <v>354</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>63</v>
+        <v>355</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>40</v>
@@ -7931,13 +7953,13 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>65</v>
+        <v>353</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>40</v>
@@ -7949,10 +7971,10 @@
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>66</v>
+        <v>351</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>40</v>
+        <v>352</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>40</v>
@@ -7960,11 +7982,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7980,20 +8002,18 @@
         <v>40</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>70</v>
+        <v>359</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>40</v>
@@ -8018,31 +8038,29 @@
         <v>40</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>40</v>
+        <v>362</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8060,22 +8078,20 @@
         <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>66</v>
+        <v>363</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>40</v>
+        <v>364</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
         <v>40</v>
       </c>
@@ -8084,7 +8100,7 @@
         <v>41</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>40</v>
@@ -8096,11 +8112,13 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="K60" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>63</v>
+      </c>
       <c r="L60" t="s" s="2">
-        <v>363</v>
+        <v>64</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8151,13 +8169,13 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>40</v>
@@ -8169,7 +8187,7 @@
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
@@ -8180,13 +8198,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8205,13 +8221,17 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="K61" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="L61" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>40</v>
@@ -8248,16 +8268,16 @@
         <v>40</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE61" t="s" s="2">
         <v>76</v>
@@ -8278,7 +8298,7 @@
         <v>40</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>40</v>
@@ -8289,7 +8309,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>367</v>
@@ -8398,9 +8418,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B63" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
         <v>40</v>
       </c>
@@ -8418,23 +8440,17 @@
         <v>40</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="K63" s="2"/>
       <c r="L63" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>40</v>
       </c>
@@ -8481,11 +8497,15 @@
       <c r="AD63" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE63" s="2"/>
+      <c r="AE63" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG63" s="2"/>
+      <c r="AG63" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH63" t="s" s="2">
         <v>40</v>
       </c>
@@ -8496,20 +8516,22 @@
         <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>223</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="B64" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="C64" t="s" s="2">
         <v>40</v>
       </c>
@@ -8518,7 +8540,7 @@
         <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>40</v>
@@ -8527,23 +8549,17 @@
         <v>40</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="K64" s="2"/>
       <c r="L64" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>40</v>
       </c>
@@ -8590,11 +8606,15 @@
       <c r="AD64" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE64" s="2"/>
+      <c r="AE64" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG64" s="2"/>
+      <c r="AG64" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH64" t="s" s="2">
         <v>40</v>
       </c>
@@ -8605,18 +8625,18 @@
         <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>266</v>
+        <v>40</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>267</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8627,7 +8647,7 @@
         <v>41</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>40</v>
@@ -8639,18 +8659,20 @@
         <v>50</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>373</v>
+        <v>223</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>374</v>
+        <v>224</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>40</v>
       </c>
@@ -8674,13 +8696,13 @@
         <v>40</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>376</v>
+        <v>40</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>377</v>
+        <v>40</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>40</v>
@@ -8697,15 +8719,11 @@
       <c r="AD65" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE65" t="s" s="2">
-        <v>372</v>
-      </c>
+      <c r="AE65" s="2"/>
       <c r="AF65" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG65" t="s" s="2">
-        <v>49</v>
-      </c>
+      <c r="AG65" s="2"/>
       <c r="AH65" t="s" s="2">
         <v>40</v>
       </c>
@@ -8716,18 +8734,18 @@
         <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>378</v>
+        <v>228</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>40</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8738,7 +8756,7 @@
         <v>41</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>40</v>
@@ -8747,21 +8765,23 @@
         <v>40</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>380</v>
+        <v>62</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>381</v>
+        <v>268</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>382</v>
+        <v>269</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>40</v>
       </c>
@@ -8808,15 +8828,11 @@
       <c r="AD66" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE66" t="s" s="2">
-        <v>379</v>
-      </c>
+      <c r="AE66" s="2"/>
       <c r="AF66" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG66" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG66" s="2"/>
       <c r="AH66" t="s" s="2">
         <v>40</v>
       </c>
@@ -8827,18 +8843,18 @@
         <v>40</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>384</v>
+        <v>272</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>40</v>
+        <v>273</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8849,7 +8865,7 @@
         <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>40</v>
@@ -8858,19 +8874,19 @@
         <v>40</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8899,10 +8915,10 @@
         <v>106</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>40</v>
@@ -8920,13 +8936,13 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>40</v>
@@ -8938,7 +8954,7 @@
         <v>40</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>40</v>
@@ -8949,7 +8965,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8972,18 +8988,18 @@
         <v>40</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>40</v>
       </c>
@@ -9031,7 +9047,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9049,7 +9065,7 @@
         <v>40</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>40</v>
@@ -9060,7 +9076,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9083,15 +9099,17 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>40</v>
@@ -9119,10 +9137,10 @@
         <v>106</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>40</v>
@@ -9140,7 +9158,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9158,7 +9176,7 @@
         <v>40</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>40</v>
@@ -9169,7 +9187,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9192,16 +9210,18 @@
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>40</v>
       </c>
@@ -9249,7 +9269,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9267,18 +9287,18 @@
         <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>408</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9301,13 +9321,13 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>301</v>
+        <v>206</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9334,13 +9354,13 @@
         <v>40</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>40</v>
+        <v>406</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>40</v>
+        <v>407</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>40</v>
@@ -9358,7 +9378,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9370,13 +9390,13 @@
         <v>40</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>304</v>
+        <v>40</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>40</v>
@@ -9387,7 +9407,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9398,7 +9418,7 @@
         <v>41</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>40</v>
@@ -9410,13 +9430,13 @@
         <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>62</v>
+        <v>410</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>63</v>
+        <v>411</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>64</v>
+        <v>412</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9467,13 +9487,13 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>65</v>
+        <v>409</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>40</v>
@@ -9485,22 +9505,22 @@
         <v>40</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>66</v>
+        <v>413</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>40</v>
+        <v>414</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9519,17 +9539,15 @@
         <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>69</v>
+        <v>307</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>70</v>
+        <v>416</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>40</v>
@@ -9578,7 +9596,7 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>76</v>
+        <v>415</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9590,13 +9608,13 @@
         <v>40</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>40</v>
+        <v>310</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>66</v>
+        <v>418</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>40</v>
@@ -9607,40 +9625,38 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>309</v>
+        <v>40</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>40</v>
@@ -9689,13 +9705,13 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>311</v>
+        <v>65</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>40</v>
@@ -9707,7 +9723,7 @@
         <v>40</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>40</v>
@@ -9718,18 +9734,18 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>40</v>
@@ -9741,15 +9757,17 @@
         <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>417</v>
+        <v>70</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>40</v>
@@ -9774,13 +9792,13 @@
         <v>40</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>419</v>
+        <v>40</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>420</v>
+        <v>40</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>40</v>
@@ -9798,13 +9816,13 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>416</v>
+        <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>40</v>
@@ -9816,7 +9834,7 @@
         <v>40</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>421</v>
+        <v>66</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
@@ -9827,38 +9845,40 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>423</v>
+        <v>69</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>424</v>
+        <v>161</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>40</v>
@@ -9907,13 +9927,13 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>422</v>
+        <v>317</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>40</v>
@@ -9925,7 +9945,7 @@
         <v>40</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>426</v>
+        <v>138</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>40</v>
@@ -9936,7 +9956,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9947,7 +9967,7 @@
         <v>41</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>40</v>
@@ -9959,20 +9979,16 @@
         <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>428</v>
+        <v>206</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>40</v>
       </c>
@@ -9996,13 +10012,13 @@
         <v>40</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>40</v>
+        <v>425</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>40</v>
+        <v>426</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>40</v>
@@ -10020,25 +10036,25 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK77" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>40</v>
@@ -10049,7 +10065,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10057,10 +10073,10 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>40</v>
@@ -10072,17 +10088,15 @@
         <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>200</v>
+        <v>429</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M78" t="s" s="2">
         <v>431</v>
       </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>40</v>
@@ -10107,59 +10121,283 @@
         <v>40</v>
       </c>
       <c r="W78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W80" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="X78" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG78" t="s" s="2">
+      <c r="X80" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG80" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AH78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM78" t="s" s="2">
+      <c r="AH80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM78">
+  <autoFilter ref="A1:AM80">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10169,7 +10407,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI77">
+  <conditionalFormatting sqref="A2:AI79">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
